--- a/Doc/ExcelConfig/Datas/dota/CourierAbilityLevelUpConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/CourierAbilityLevelUpConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>##</t>
   </si>
@@ -46,6 +46,12 @@
     <t>TechGoldcost</t>
   </si>
   <si>
+    <t>AutoGoldGetGold</t>
+  </si>
+  <si>
+    <t>AutoGoldGetWood</t>
+  </si>
+  <si>
     <t>ChallengeGoldCost</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>人口升级木材消耗</t>
   </si>
   <si>
+    <t>科技升级额外金币每阶段</t>
+  </si>
+  <si>
     <t>科技升级额外木材每阶段</t>
   </si>
   <si>
@@ -86,6 +95,12 @@
   </si>
   <si>
     <t>科技升级升级金币消耗</t>
+  </si>
+  <si>
+    <t>发现宝藏金币</t>
+  </si>
+  <si>
+    <t>发现宝藏木材</t>
   </si>
   <si>
     <t>金币挑战升级消耗</t>
@@ -732,7 +747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -745,6 +760,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,10 +1083,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5"/>
@@ -1076,20 +1094,23 @@
     <col min="1" max="1" width="8.66666666666667" style="1"/>
     <col min="2" max="2" width="9.16666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.9166666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.8333333333333" style="2" customWidth="1"/>
-    <col min="6" max="8" width="25.1666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.3333333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.9166666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.8333333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.3333333333333" style="2" customWidth="1"/>
-    <col min="14" max="16329" width="16.9166666666667" style="1" customWidth="1"/>
-    <col min="16330" max="16330" width="16.9166666666667" style="1"/>
-    <col min="16331" max="16384" width="8.66666666666667" style="1"/>
+    <col min="4" max="4" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.5833333333333" style="2" customWidth="1"/>
+    <col min="7" max="8" width="25.1666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.9166666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.1666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.8333333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="22.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.3333333333333" style="2" customWidth="1"/>
+    <col min="16" max="16331" width="16.9166666666667" style="1" customWidth="1"/>
+    <col min="16332" max="16332" width="16.9166666666667" style="1"/>
+    <col min="16333" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1129,90 +1150,108 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:13">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:15">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1220,11 +1259,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E12" si="0">D4/2</f>
-        <v>500</v>
+        <f t="shared" ref="E4:E13" si="0">D4/10</f>
+        <v>50</v>
       </c>
       <c r="F4" s="6">
         <v>10</v>
@@ -1236,24 +1275,31 @@
         <f t="shared" ref="H4:H22" si="1">G4/5</f>
         <v>1</v>
       </c>
-      <c r="I4" s="6">
-        <v>600</v>
+      <c r="I4" s="7">
+        <v>100</v>
       </c>
       <c r="J4" s="6">
-        <v>60</v>
-      </c>
-      <c r="K4" s="6">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4:K22" si="2">J4/10</f>
+        <v>5</v>
       </c>
       <c r="L4" s="6">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" ref="M4:M13" si="2">L4*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6">
+        <v>25</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" ref="O4:O13" si="3">N4*2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:15">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1261,11 +1307,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="F5" s="6">
         <v>10</v>
@@ -1277,24 +1323,31 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I5" s="6">
-        <v>700</v>
+      <c r="I5" s="7">
+        <v>200</v>
       </c>
       <c r="J5" s="6">
-        <v>70</v>
-      </c>
-      <c r="K5" s="6">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L5" s="6">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="N5" s="6">
+        <v>25</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1302,11 +1355,11 @@
         <v>1</v>
       </c>
       <c r="D6" s="6">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="F6" s="6">
         <v>10</v>
@@ -1318,24 +1371,31 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I6" s="6">
-        <v>800</v>
+      <c r="I6" s="7">
+        <v>300</v>
       </c>
       <c r="J6" s="6">
-        <v>80</v>
-      </c>
-      <c r="K6" s="6">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="L6" s="6">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="M6" s="6">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="N6" s="6">
+        <v>25</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1343,11 +1403,11 @@
         <v>1</v>
       </c>
       <c r="D7" s="6">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>1250</v>
+        <v>200</v>
       </c>
       <c r="F7" s="6">
         <v>10</v>
@@ -1359,24 +1419,31 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I7" s="6">
-        <v>900</v>
+      <c r="I7" s="7">
+        <v>400</v>
       </c>
       <c r="J7" s="6">
-        <v>90</v>
-      </c>
-      <c r="K7" s="6">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="L7" s="6">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="N7" s="6">
+        <v>25</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -1384,11 +1451,11 @@
         <v>1</v>
       </c>
       <c r="D8" s="6">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="F8" s="6">
         <v>10</v>
@@ -1400,24 +1467,31 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I8" s="6">
-        <v>1000</v>
+      <c r="I8" s="7">
+        <v>500</v>
       </c>
       <c r="J8" s="6">
-        <v>100</v>
-      </c>
-      <c r="K8" s="6">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="L8" s="6">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="N8" s="6">
+        <v>25</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -1425,11 +1499,11 @@
         <v>1</v>
       </c>
       <c r="D9" s="6">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="F9" s="6">
         <v>10</v>
@@ -1441,24 +1515,28 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" s="6">
-        <v>1100</v>
+      <c r="I9" s="7">
+        <v>600</v>
       </c>
       <c r="J9" s="6">
-        <v>110</v>
-      </c>
-      <c r="K9" s="6">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="L9" s="6">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="N9" s="6">
+        <v>25</v>
+      </c>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -1466,11 +1544,11 @@
         <v>1</v>
       </c>
       <c r="D10" s="6">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="F10" s="6">
         <v>10</v>
@@ -1482,24 +1560,28 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I10" s="6">
-        <v>1200</v>
+      <c r="I10" s="7">
+        <v>700</v>
       </c>
       <c r="J10" s="6">
-        <v>120</v>
-      </c>
-      <c r="K10" s="6">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="L10" s="6">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="N10" s="6">
+        <v>25</v>
+      </c>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -1507,11 +1589,11 @@
         <v>1</v>
       </c>
       <c r="D11" s="6">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>2250</v>
+        <v>400</v>
       </c>
       <c r="F11" s="6">
         <v>10</v>
@@ -1523,24 +1605,28 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I11" s="6">
-        <v>1300</v>
+      <c r="I11" s="7">
+        <v>800</v>
       </c>
       <c r="J11" s="6">
-        <v>130</v>
-      </c>
-      <c r="K11" s="6">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="L11" s="6">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="N11" s="6">
+        <v>25</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -1548,11 +1634,11 @@
         <v>1</v>
       </c>
       <c r="D12" s="6">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="F12" s="6">
         <v>10</v>
@@ -1564,24 +1650,28 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="6">
-        <v>1400</v>
+      <c r="I12" s="7">
+        <v>900</v>
       </c>
       <c r="J12" s="6">
-        <v>140</v>
-      </c>
-      <c r="K12" s="6">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="L12" s="6">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="N12" s="6">
+        <v>25</v>
+      </c>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -1592,6 +1682,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="6">
@@ -1604,24 +1695,28 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I13" s="6">
-        <v>1500</v>
+      <c r="I13" s="7">
+        <v>1000</v>
       </c>
       <c r="J13" s="6">
-        <v>150</v>
-      </c>
-      <c r="K13" s="6">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="L13" s="6">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="N13" s="6">
+        <v>25</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -1635,21 +1730,26 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I14" s="6">
-        <v>1600</v>
+      <c r="I14" s="7">
+        <v>1100</v>
       </c>
       <c r="J14" s="6">
-        <v>160</v>
-      </c>
-      <c r="K14" s="6">
-        <v>160</v>
+        <v>150</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="L14" s="6">
-        <v>47</v>
-      </c>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="M14" s="6">
+        <v>10</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -1663,21 +1763,26 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I15" s="6">
-        <v>1700</v>
+      <c r="I15" s="7">
+        <v>1200</v>
       </c>
       <c r="J15" s="6">
-        <v>170</v>
-      </c>
-      <c r="K15" s="6">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="L15" s="6">
-        <v>49</v>
-      </c>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="M15" s="6">
+        <v>10</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -1691,21 +1796,26 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I16" s="6">
-        <v>1800</v>
+      <c r="I16" s="7">
+        <v>1300</v>
       </c>
       <c r="J16" s="6">
-        <v>180</v>
-      </c>
-      <c r="K16" s="6">
-        <v>180</v>
+        <v>170</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="L16" s="6">
-        <v>51</v>
-      </c>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="M16" s="6">
+        <v>10</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -1719,21 +1829,26 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I17" s="6">
-        <v>1900</v>
+      <c r="I17" s="7">
+        <v>1400</v>
       </c>
       <c r="J17" s="6">
-        <v>190</v>
-      </c>
-      <c r="K17" s="6">
-        <v>190</v>
+        <v>180</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="L17" s="6">
-        <v>53</v>
-      </c>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="M17" s="6">
+        <v>10</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -1747,21 +1862,26 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I18" s="6">
-        <v>2000</v>
+      <c r="I18" s="7">
+        <v>1500</v>
       </c>
       <c r="J18" s="6">
-        <v>200</v>
-      </c>
-      <c r="K18" s="6">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="L18" s="6">
-        <v>55</v>
-      </c>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="2:11">
+        <v>10</v>
+      </c>
+      <c r="M18" s="6">
+        <v>10</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -1775,17 +1895,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I19" s="6">
-        <v>2100</v>
+      <c r="I19" s="7">
+        <v>1600</v>
       </c>
       <c r="J19" s="6">
-        <v>210</v>
-      </c>
-      <c r="K19" s="6">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+        <v>200</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -1799,17 +1922,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I20" s="6">
-        <v>2200</v>
+      <c r="I20" s="7">
+        <v>1700</v>
       </c>
       <c r="J20" s="6">
-        <v>220</v>
-      </c>
-      <c r="K20" s="6">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
+        <v>210</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -1823,17 +1949,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I21" s="6">
-        <v>2300</v>
+      <c r="I21" s="7">
+        <v>1800</v>
       </c>
       <c r="J21" s="6">
-        <v>230</v>
-      </c>
-      <c r="K21" s="6">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
+        <v>220</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -1847,17 +1976,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I22" s="6">
-        <v>2400</v>
+      <c r="I22" s="7">
+        <v>1900</v>
       </c>
       <c r="J22" s="6">
-        <v>240</v>
-      </c>
-      <c r="K22" s="6">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
+        <v>230</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -1870,15 +2002,17 @@
       <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="7">
         <v>0</v>
       </c>
-      <c r="J23" s="6">
-        <v>250</v>
-      </c>
-      <c r="K23" s="6">
-        <v>250</v>
-      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
